--- a/info.xlsx
+++ b/info.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>StudFIO</t>
   </si>
@@ -21,10 +21,10 @@
     <t>DocID</t>
   </si>
   <si>
-    <t xml:space="preserve">Permission ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End-Of-Life Pass</t>
+    <t>Permission-ID</t>
+  </si>
+  <si>
+    <t>End-Of-Life-Pass</t>
   </si>
   <si>
     <t>Creation</t>
@@ -39,10 +39,22 @@
     <t>Fak</t>
   </si>
   <si>
-    <t xml:space="preserve">Фирсова Анастасия Юрьевна</t>
+    <t xml:space="preserve">Фирсова Анастасия</t>
   </si>
   <si>
     <t>ФМФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алиев Фарид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Барзылович Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лисавин Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бердникова Алена</t>
   </si>
 </sst>
 </file>
@@ -653,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
         <v>44114</v>
@@ -670,6 +682,152 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44115</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44116</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44117</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44118</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
